--- a/StructureDefinition-ms-aborhgroup-observation.xlsx
+++ b/StructureDefinition-ms-aborhgroup-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T18:37:26-06:00</t>
+    <t>2024-03-18T10:20:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ms-aborhgroup-observation.xlsx
+++ b/StructureDefinition-ms-aborhgroup-observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$68</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="544">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T10:20:43-05:00</t>
+    <t>2024-05-01T13:56:53-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>NMDP (http://bethematch.org)</t>
   </si>
   <si>
     <t>Description</t>
@@ -1197,6 +1197,9 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
+    <t>http://loinc.org/vs/LL2972-9</t>
+  </si>
+  <si>
     <t xml:space="preserve">obs-7
 </t>
   </si>
@@ -1211,15 +1214,6 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>http://loinc.org/vs/LL2972-9</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -2034,7 +2028,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP69"/>
+  <dimension ref="A1:AP68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2045,7 +2039,7 @@
   <cols>
     <col min="1" max="1" width="52.078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.07421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -6855,26 +6849,26 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>373</v>
@@ -6886,7 +6880,7 @@
         <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>102</v>
@@ -6895,31 +6889,29 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C41" t="s" s="2">
         <v>384</v>
       </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6937,22 +6929,22 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>291</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6977,11 +6969,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="Y41" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="Z41" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6999,7 +6993,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -7008,7 +7002,7 @@
         <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>102</v>
@@ -7017,38 +7011,38 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>380</v>
+        <v>241</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -7063,16 +7057,16 @@
         <v>291</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -7100,10 +7094,10 @@
         <v>148</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -7121,16 +7115,16 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>102</v>
@@ -7139,31 +7133,31 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>241</v>
+        <v>402</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7182,19 +7176,19 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>291</v>
+        <v>406</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -7219,13 +7213,13 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -7243,7 +7237,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7261,27 +7255,27 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7292,7 +7286,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7304,20 +7298,18 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>408</v>
+        <v>291</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7341,13 +7333,13 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -7365,13 +7357,13 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -7383,27 +7375,27 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7429,15 +7421,17 @@
         <v>291</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7464,10 +7458,10 @@
         <v>209</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7485,7 +7479,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7503,27 +7497,27 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7546,20 +7540,18 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>291</v>
+        <v>433</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7583,13 +7575,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7607,7 +7599,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7625,27 +7617,27 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7668,16 +7660,16 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7727,7 +7719,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7745,27 +7737,27 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7776,7 +7768,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7788,18 +7780,20 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7847,45 +7841,45 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>456</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7896,7 +7890,7 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7908,20 +7902,16 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>453</v>
+        <v>104</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>454</v>
+        <v>105</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7969,19 +7959,19 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>452</v>
+        <v>107</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
@@ -7990,10 +7980,10 @@
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>460</v>
+        <v>108</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -8004,21 +7994,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -8030,15 +8020,17 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -8087,19 +8079,19 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -8122,14 +8114,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>110</v>
+        <v>462</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8142,24 +8134,26 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>112</v>
+        <v>463</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>113</v>
+        <v>464</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8207,7 +8201,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>118</v>
+        <v>465</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8231,7 +8225,7 @@
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8242,46 +8236,42 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>111</v>
+        <v>467</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8329,19 +8319,19 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -8350,10 +8340,10 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>241</v>
+        <v>472</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8364,10 +8354,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8390,13 +8380,13 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8447,7 +8437,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8456,7 +8446,7 @@
         <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>102</v>
@@ -8468,10 +8458,10 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8482,10 +8472,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8508,16 +8498,20 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>469</v>
+        <v>291</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8541,13 +8535,13 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -8565,7 +8559,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8574,7 +8568,7 @@
         <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>102</v>
@@ -8583,13 +8577,13 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>478</v>
+        <v>403</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8600,10 +8594,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8614,7 +8608,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8629,16 +8623,16 @@
         <v>291</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8663,13 +8657,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8687,13 +8681,13 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
@@ -8705,13 +8699,13 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8722,10 +8716,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8736,7 +8730,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8748,19 +8742,17 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>291</v>
+        <v>494</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8785,37 +8777,37 @@
         <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>488</v>
-      </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
@@ -8827,13 +8819,13 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>405</v>
+        <v>498</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -8844,10 +8836,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8870,18 +8862,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>496</v>
+        <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>499</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8929,7 +8919,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8950,10 +8940,10 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>79</v>
@@ -8964,10 +8954,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8978,7 +8968,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8987,18 +8977,20 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>104</v>
+        <v>504</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -9047,13 +9039,13 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
@@ -9068,10 +9060,10 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>79</v>
@@ -9082,10 +9074,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9108,16 +9100,16 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9167,7 +9159,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9188,10 +9180,10 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>79</v>
@@ -9202,10 +9194,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9228,18 +9220,20 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>513</v>
+        <v>451</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9287,7 +9281,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9308,10 +9302,10 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9322,10 +9316,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9336,7 +9330,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9345,23 +9339,19 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>453</v>
+        <v>104</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>519</v>
+        <v>105</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9409,19 +9399,19 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -9430,10 +9420,10 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>524</v>
+        <v>108</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9444,21 +9434,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9470,15 +9460,17 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9527,19 +9519,19 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -9562,14 +9554,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>110</v>
+        <v>462</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9582,24 +9574,26 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>112</v>
+        <v>463</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>113</v>
+        <v>464</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9647,7 +9641,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>118</v>
+        <v>465</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9671,7 +9665,7 @@
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9682,45 +9676,45 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>465</v>
+        <v>527</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>466</v>
+        <v>528</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>114</v>
+        <v>529</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -9745,13 +9739,13 @@
         <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -9769,34 +9763,34 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>79</v>
@@ -9804,10 +9798,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9815,7 +9809,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>90</v>
@@ -9830,19 +9824,19 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>291</v>
+        <v>532</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>530</v>
+        <v>375</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>305</v>
+        <v>377</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9867,13 +9861,13 @@
         <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>79</v>
@@ -9891,10 +9885,10 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>90</v>
@@ -9909,27 +9903,27 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9949,22 +9943,22 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>534</v>
+        <v>291</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>375</v>
+        <v>538</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -9989,13 +9983,13 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>389</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>79</v>
+        <v>390</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -10013,7 +10007,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10022,7 +10016,7 @@
         <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>102</v>
@@ -10031,38 +10025,38 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>380</v>
+        <v>241</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -10077,16 +10071,16 @@
         <v>291</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>539</v>
+        <v>395</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>540</v>
+        <v>396</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>541</v>
+        <v>397</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -10114,10 +10108,10 @@
         <v>148</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -10135,16 +10129,16 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>102</v>
@@ -10153,31 +10147,31 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>241</v>
+        <v>402</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10196,19 +10190,19 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>397</v>
+        <v>542</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>398</v>
+        <v>543</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -10233,13 +10227,13 @@
         <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>79</v>
@@ -10257,7 +10251,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10275,145 +10269,23 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP69" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP69">
+  <autoFilter ref="A1:AP68">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10423,7 +10295,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI68">
+  <conditionalFormatting sqref="A2:AI67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ms-aborhgroup-observation.xlsx
+++ b/StructureDefinition-ms-aborhgroup-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-01T13:56:53-05:00</t>
+    <t>2024-05-20T10:22:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ms-aborhgroup-observation.xlsx
+++ b/StructureDefinition-ms-aborhgroup-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-11T17:53:38-06:00</t>
+    <t>2024-12-02T18:31:42-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
